--- a/medicine/Enfance/Hervé_Jubert/Hervé_Jubert.xlsx
+++ b/medicine/Enfance/Hervé_Jubert/Hervé_Jubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jubert</t>
+          <t>Hervé_Jubert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Jubert, né le 5 mars 1970 à Reims, est un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jubert</t>
+          <t>Hervé_Jubert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bac littéraire en poche, il reçoit une formation en Lettres Modernes à Reims puis en histoire de l'Art (École du Louvre et Paris IV jusqu'au DEA).
 Il travaille pour le Collège de France et l'École pratique des hautes études. En 2000, il quitte Paris pour le Sud-Ouest de la France et se consacre à l'écriture de romans de genre.
@@ -527,7 +541,7 @@
 Trois nouvelle pour Je Bouquine, la dernière en date (juin 2012) plongeant dans l'univers de Sherlock Holmes.
 Une série de cinq romans illustrés par Marc Moreno narrant les aventures de la Catch-a-team, héros masqués dans la tradition des luchadors, catcheurs d'Amérique centrale. Cette série est publiée par Flammarion.
 Débute, fin 2012, avec les éditions Gründ, la publication d'un roman-feuilleton futuriste dans la lignée de Fantômas. Le premier tome, La Règle de Seth, sort en octobre 2012, et le deuxième, Le Don des larmes, en 2013.
-En 2011, Hervé Jubert commence à travailler avec les éditions Rageot. Cette collaboration se concrétise par une trilogie, publiée courant 2012 : les aventures de Vagabonde, thriller en forme de road-movie, et M.O.N.S.T.R.E., thriller fantastique en sept volumes que l'éditeur abandonne après le cinquième tome. Hervé Jubert décide de publier l'intégrale à son compte. Elle est disponible sur son site[1].
+En 2011, Hervé Jubert commence à travailler avec les éditions Rageot. Cette collaboration se concrétise par une trilogie, publiée courant 2012 : les aventures de Vagabonde, thriller en forme de road-movie, et M.O.N.S.T.R.E., thriller fantastique en sept volumes que l'éditeur abandonne après le cinquième tome. Hervé Jubert décide de publier l'intégrale à son compte. Elle est disponible sur son site.
 </t>
         </is>
       </c>
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jubert</t>
+          <t>Hervé_Jubert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,45 +572,322 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Aventures de Pierre Pèlerin
-Sinedeis, J'ai lu, 1999
+          <t>Série Les Aventures de Pierre Pèlerin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sinedeis, J'ai lu, 1999
 In media res, J'ai lu, 2000
-Erat fatum, J'ai lu, 2002
-Série Morgenstern
-Le Quadrille des assassins, Albin Michel, 2002
+Erat fatum, J'ai lu, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Morgenstern</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Quadrille des assassins, Albin Michel, 2002
 Un tango du diable, Albin Michel, 2003
 Sabbat Samba, Albin Michel, 2004
-La Trilogie Morgenstern, Editions Bragelonne, sortie le 14/02/2018
-Série Blanche
-Blanche ou la Triple Contrainte de l'enfer, Albin Michel, 2005Prix de la foire du livre de Brive 2006
+La Trilogie Morgenstern, Editions Bragelonne, sortie le 14/02/2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Blanche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blanche ou la Triple Contrainte de l'enfer, Albin Michel, 2005Prix de la foire du livre de Brive 2006
 Blanche et l'Œil du grand khan, Albin Michel, 2006
-Blanche et le Vampire de Paris, Albin Michel, 2007
-Série Catch-a-team
-Le monde est notre ring, Baam !, 2010
+Blanche et le Vampire de Paris, Albin Michel, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Catch-a-team</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le monde est notre ring, Baam !, 2010
 Le Maître des masques, Baam !, 2010
 Les Avaleurs de brouillard, Baam !, 2010
 Les Gladiateurs de l'enfer, Baam !, 2010
-La Prise de l'aigle, Baam !, 2010
-Série Vagabonde
-Les Voleurs de têtes, Rageot, 2012
+La Prise de l'aigle, Baam !, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Vagabonde</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Voleurs de têtes, Rageot, 2012
 Le Gang du serpent, Rageot, 2012
-Les Mauvais Joueurs, Rageot, 2012
-Série Seth
-La Règle de Seth, Gründ, 2012
-Le Don des larmes, Gründ, 2013
-Série Beauregard
-Magies secrètes, Le Pré aux clercs, 2012Grand prix de l'Imaginaire 2013
+Les Mauvais Joueurs, Rageot, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Seth</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Règle de Seth, Gründ, 2012
+Le Don des larmes, Gründ, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Beauregard</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Magies secrètes, Le Pré aux clercs, 2012Grand prix de l'Imaginaire 2013
 Le Tournoi des ombres, Le Pré aux clercs, 2013
-La Nuit des égrégores, Gallimard, 2016
-Série M.O.N.S.T.R.E.
-Cœur de harpie, Rageot, 2014
+La Nuit des égrégores, Gallimard, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série M.O.N.S.T.R.E.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cœur de harpie, Rageot, 2014
 Larmes de sirène, Rageot, 2014
 Rêve de hyène, Rageot, 2014
 Rire de satyre, Rageot, 2015
 Souffle de centaure, Rageot, 2015
-M.O.N.S.T.R.E. - Intégrale, 2016Intégrale disponible sur le site de l'auteur et réunissant les cinq tomes parus chez Rageot ainsi que les deux derniers tomes jamais parus
-Ouvrages indépendants
-Le Roi sans visage, Le Masque, 1998
+M.O.N.S.T.R.E. - Intégrale, 2016Intégrale disponible sur le site de l'auteur et réunissant les cinq tomes parus chez Rageot ainsi que les deux derniers tomes jamais parus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hervé_Jubert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jubert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages indépendants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Roi sans visage, Le Masque, 1998
 La Fête électrique, Le Masque, 1999
 Le Virus de décembre, Le Masque, 1999
 Deep Fighter, J'ai lu, 2000
